--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1297960.672005112</v>
+        <v>1293514.249156513</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.85593864</v>
+        <v>7134934.855938643</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4342923.242228338</v>
+        <v>4342923.242228337</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>405.2578851081802</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>188.4049472639871</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>85.81706634455473</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.5650864830671</v>
@@ -1584,7 +1584,7 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>200.0446759003798</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>160.0725217429258</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.2657302332918</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T14" t="n">
         <v>209.8302460968812</v>
@@ -1666,16 +1666,16 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>185.1399756085879</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>76.58886667643748</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8.21448493259005</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.0153716433569</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>90.33005005757833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>132.8067508943336</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.0153716433569</v>
+        <v>165.2560510931699</v>
       </c>
       <c r="U19" t="n">
-        <v>181.9855259721802</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>377.2011226649934</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.78833261983183</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T21" t="n">
         <v>136.0833327936195</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2256,10 +2256,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>128.5248178537045</v>
       </c>
       <c r="T22" t="n">
-        <v>79.06744168947444</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
         <v>277.3329370021073</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>66.33907502224487</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.1005558094662</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T23" t="n">
         <v>209.8302460968812</v>
@@ -2377,7 +2377,7 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>156.6944718187507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T24" t="n">
         <v>136.0833327936195</v>
@@ -2481,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>68.12931533774821</v>
       </c>
       <c r="T25" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U25" t="n">
-        <v>80.05996433962356</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>340.3867778086819</v>
       </c>
       <c r="X26" t="n">
-        <v>217.149320577138</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T27" t="n">
         <v>136.0833327936195</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>1.118712949301053</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S28" t="n">
         <v>152.5650864830671</v>
@@ -2769,16 +2769,16 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3329370021073</v>
+        <v>236.2118127528738</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.963285492684</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
         <v>274.1005558094662</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.5385536185634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T30" t="n">
         <v>136.0833327936195</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>160.5893962191058</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>95.68694288413755</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>351.8965265946305</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>164.3460112350299</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T32" t="n">
         <v>209.8302460968812</v>
@@ -3088,13 +3088,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T33" t="n">
         <v>136.0833327936195</v>
@@ -3201,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>157.2002716171371</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
         <v>134.26258275451</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S34" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>240.9646689773661</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>48.61956546275708</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>369.9027678398061</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T36" t="n">
         <v>136.0833327936195</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>162.8023180937981</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
         <v>71.38780296833761</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.5650864830671</v>
@@ -3480,19 +3480,19 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>116.6235597806796</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.4258607790015</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>152.8320742462562</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.009889066424</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3329370021073</v>
+        <v>192.8971658567888</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>28.40135393520232</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.98222471540502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T43" t="n">
         <v>237.0153716433569</v>
@@ -3957,16 +3957,16 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>66.13141067327247</v>
       </c>
       <c r="X43" t="n">
-        <v>50.51804353248492</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>185.1399756085874</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V44" t="n">
-        <v>229.5037478473565</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.3105117480862</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4152,10 +4152,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I46" t="n">
-        <v>71.38780296833761</v>
+        <v>49.07724719009117</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1596.020088628959</v>
+        <v>1302.454267490583</v>
       </c>
       <c r="C11" t="n">
-        <v>1169.119358642259</v>
+        <v>1302.454267490583</v>
       </c>
       <c r="D11" t="n">
-        <v>745.826737827259</v>
+        <v>879.1616466755834</v>
       </c>
       <c r="E11" t="n">
-        <v>745.826737827259</v>
+        <v>453.1847068234409</v>
       </c>
       <c r="F11" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H11" t="n">
         <v>43.83330772426898</v>
@@ -5068,25 +5068,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W11" t="n">
-        <v>2001.357358674068</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X11" t="n">
-        <v>2001.357358674068</v>
+        <v>1722.302631782113</v>
       </c>
       <c r="Y11" t="n">
-        <v>1596.020088628959</v>
+        <v>1722.302631782113</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>64.84342863053152</v>
       </c>
       <c r="J12" t="n">
-        <v>146.0262857709435</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K12" t="n">
-        <v>297.4808782569461</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L12" t="n">
-        <v>508.6576814496919</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M12" t="n">
         <v>982.7079039592064</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.328952557294</v>
+        <v>302.3789873482487</v>
       </c>
       <c r="C13" t="n">
-        <v>617.328952557294</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D13" t="n">
-        <v>454.0121796840647</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E13" t="n">
-        <v>287.8039738369183</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I13" t="n">
         <v>43.83330772426898</v>
@@ -5205,46 +5205,46 @@
         <v>418.3963088502694</v>
       </c>
       <c r="L13" t="n">
-        <v>530.718700000598</v>
+        <v>907.1075935917629</v>
       </c>
       <c r="M13" t="n">
-        <v>1063.211864159908</v>
+        <v>1026.065277288251</v>
       </c>
       <c r="N13" t="n">
-        <v>1570.839159777536</v>
+        <v>1541.50418395153</v>
       </c>
       <c r="O13" t="n">
-        <v>2053.684035899826</v>
+        <v>2024.349060073821</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.554082608811</v>
+        <v>2111.219106782806</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U13" t="n">
-        <v>1792.466889991379</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V13" t="n">
-        <v>1510.755422599407</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W13" t="n">
-        <v>1235.90301877192</v>
+        <v>961.4516209247672</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.837689579618</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.4949212693596</v>
+        <v>492.5449560603143</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1309.804770126469</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="C14" t="n">
-        <v>1309.804770126469</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.804770126469</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E14" t="n">
-        <v>1148.115354224523</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F14" t="n">
         <v>722.9911724139236</v>
@@ -5275,22 +5275,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M14" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O14" t="n">
         <v>1667.064768900565</v>
@@ -5305,25 +5305,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T14" t="n">
-        <v>1979.715642681246</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U14" t="n">
-        <v>1721.524768958721</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V14" t="n">
-        <v>1721.524768958721</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W14" t="n">
-        <v>1721.524768958721</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.804770126469</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="Y14" t="n">
-        <v>1309.804770126469</v>
+        <v>722.9911724139236</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K15" t="n">
-        <v>297.4808782569461</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L15" t="n">
-        <v>508.6576814496919</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M15" t="n">
-        <v>982.7079039592064</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N15" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O15" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P15" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R15" t="n">
         <v>1815.956238873899</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.0388737055521</v>
+        <v>456.4851353109433</v>
       </c>
       <c r="C16" t="n">
-        <v>351.0663105844681</v>
+        <v>284.5125721898594</v>
       </c>
       <c r="D16" t="n">
-        <v>187.7495377112388</v>
+        <v>121.1957993166301</v>
       </c>
       <c r="E16" t="n">
-        <v>187.7495377112388</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F16" t="n">
-        <v>187.7495377112388</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G16" t="n">
-        <v>187.7495377112388</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H16" t="n">
-        <v>52.13076725213773</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I16" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J16" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K16" t="n">
-        <v>418.3963088502694</v>
+        <v>249.0354163844683</v>
       </c>
       <c r="L16" t="n">
-        <v>907.1075935917629</v>
+        <v>361.3578075347968</v>
       </c>
       <c r="M16" t="n">
-        <v>1302.059678578238</v>
+        <v>893.8509716941069</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.465662399637</v>
+        <v>1409.289878357386</v>
       </c>
       <c r="O16" t="n">
-        <v>1902.310538521927</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P16" t="n">
         <v>1989.180585230913</v>
@@ -5460,28 +5460,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S16" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.466889991379</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.332610191271</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.6211427993</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W16" t="n">
-        <v>955.7687389718126</v>
+        <v>1115.557768887462</v>
       </c>
       <c r="X16" t="n">
-        <v>713.2048424176177</v>
+        <v>872.9938723332669</v>
       </c>
       <c r="Y16" t="n">
-        <v>713.2048424176177</v>
+        <v>646.651104023009</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>558.3684033449034</v>
+        <v>1321.835159373711</v>
       </c>
       <c r="C17" t="n">
-        <v>467.1259285392687</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="D17" t="n">
-        <v>43.83330772426898</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E17" t="n">
-        <v>43.83330772426898</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
         <v>1918.85421215123</v>
@@ -5542,25 +5542,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T17" t="n">
-        <v>2191.665386213449</v>
+        <v>1999.874397387766</v>
       </c>
       <c r="U17" t="n">
-        <v>2191.665386213449</v>
+        <v>1741.683523665241</v>
       </c>
       <c r="V17" t="n">
-        <v>2191.665386213449</v>
+        <v>1741.683523665241</v>
       </c>
       <c r="W17" t="n">
-        <v>1795.274036513796</v>
+        <v>1741.683523665241</v>
       </c>
       <c r="X17" t="n">
-        <v>1383.554037681543</v>
+        <v>1741.683523665241</v>
       </c>
       <c r="Y17" t="n">
-        <v>978.2167676364335</v>
+        <v>1741.683523665241</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J18" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K18" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L18" t="n">
-        <v>508.6576814496921</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M18" t="n">
-        <v>758.2365412873041</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>619.3493898973971</v>
+        <v>523.2864155298936</v>
       </c>
       <c r="C19" t="n">
-        <v>619.3493898973971</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="D19" t="n">
-        <v>619.3493898973971</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="E19" t="n">
-        <v>453.1411840502507</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="F19" t="n">
-        <v>281.2794098248111</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G19" t="n">
-        <v>115.9421996114787</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H19" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K19" t="n">
-        <v>361.303907028271</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L19" t="n">
-        <v>850.0151917697646</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M19" t="n">
-        <v>968.9728754662528</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N19" t="n">
-        <v>1484.411782129532</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O19" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S19" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="T19" t="n">
-        <v>1792.466889991379</v>
+        <v>2019.057200125978</v>
       </c>
       <c r="U19" t="n">
-        <v>1608.643126383116</v>
+        <v>1738.92292032587</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.931658991145</v>
+        <v>1457.211452933899</v>
       </c>
       <c r="W19" t="n">
-        <v>1052.079255163658</v>
+        <v>1182.359049106412</v>
       </c>
       <c r="X19" t="n">
-        <v>809.5153586094627</v>
+        <v>939.7951525522171</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.5153586094627</v>
+        <v>713.4523842419592</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1979.715642681246</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C20" t="n">
-        <v>1552.814912694546</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D20" t="n">
-        <v>1552.814912694546</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E20" t="n">
-        <v>1126.837972842404</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F20" t="n">
-        <v>701.713791031804</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643833</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037497</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L20" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M20" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P20" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q20" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R20" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2191.665386213449</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="T20" t="n">
-        <v>1979.715642681246</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="U20" t="n">
-        <v>1979.715642681246</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="V20" t="n">
-        <v>1979.715642681246</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="W20" t="n">
-        <v>1979.715642681246</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="X20" t="n">
-        <v>1979.715642681246</v>
+        <v>2150.46505023382</v>
       </c>
       <c r="Y20" t="n">
-        <v>1979.715642681246</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>974.9733260640809</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C21" t="n">
-        <v>857.4674225815857</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D21" t="n">
-        <v>753.6274640968707</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E21" t="n">
-        <v>648.9255303698079</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F21" t="n">
-        <v>555.2797000527121</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>462.3230136065762</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H21" t="n">
-        <v>419.5424550638188</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I21" t="n">
-        <v>440.5525759700814</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J21" t="n">
-        <v>521.7354331104933</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K21" t="n">
-        <v>673.190025596496</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L21" t="n">
-        <v>884.3668287892418</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.945688626854</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N21" t="n">
-        <v>1392.471563038101</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O21" t="n">
-        <v>1625.361514275394</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P21" t="n">
-        <v>2033.605971491477</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q21" t="n">
-        <v>2148.341548985152</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R21" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S21" t="n">
-        <v>2130.719017717956</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T21" t="n">
-        <v>1993.261105805209</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U21" t="n">
-        <v>1808.565086391705</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V21" t="n">
-        <v>1603.591947530971</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W21" t="n">
-        <v>1407.070570364188</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X21" t="n">
-        <v>1243.593224130851</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y21" t="n">
-        <v>1103.900335484144</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.9407234775822</v>
+        <v>553.0048552841249</v>
       </c>
       <c r="C22" t="n">
-        <v>754.9681603564982</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="D22" t="n">
-        <v>754.9681603564982</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="E22" t="n">
-        <v>588.7599545093517</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="F22" t="n">
-        <v>416.8981802839122</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G22" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H22" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J22" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K22" t="n">
-        <v>171.1136997362474</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L22" t="n">
-        <v>659.8249844777411</v>
+        <v>623.6863648444602</v>
       </c>
       <c r="M22" t="n">
-        <v>904.0267557363577</v>
+        <v>742.6440485409485</v>
       </c>
       <c r="N22" t="n">
-        <v>1419.465662399637</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O22" t="n">
-        <v>1902.310538521927</v>
+        <v>1740.927831326518</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q22" t="n">
         <v>2191.665386213449</v>
@@ -5937,25 +5937,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S22" t="n">
-        <v>2037.559238250755</v>
+        <v>2061.842337876373</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.693135534114</v>
+        <v>1822.432871569952</v>
       </c>
       <c r="U22" t="n">
-        <v>1677.558855734006</v>
+        <v>1542.298591769844</v>
       </c>
       <c r="V22" t="n">
-        <v>1395.847388342035</v>
+        <v>1260.587124377872</v>
       </c>
       <c r="W22" t="n">
-        <v>1395.847388342035</v>
+        <v>985.7347205503855</v>
       </c>
       <c r="X22" t="n">
-        <v>1153.28349178784</v>
+        <v>743.1708239961906</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.9407234775822</v>
+        <v>743.1708239961906</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1148.115354224523</v>
+        <v>1596.872846670501</v>
       </c>
       <c r="C23" t="n">
-        <v>1148.115354224523</v>
+        <v>1169.972116683801</v>
       </c>
       <c r="D23" t="n">
-        <v>1148.115354224523</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="E23" t="n">
-        <v>1148.115354224523</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F23" t="n">
-        <v>722.9911724139236</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G23" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M23" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N23" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O23" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R23" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T23" t="n">
-        <v>1922.072887082163</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U23" t="n">
-        <v>1663.882013359638</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V23" t="n">
-        <v>1306.392598485888</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="W23" t="n">
-        <v>1306.392598485888</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="X23" t="n">
-        <v>1306.392598485888</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="Y23" t="n">
-        <v>1148.115354224523</v>
+        <v>1663.882013359637</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D24" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E24" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F24" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G24" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J24" t="n">
-        <v>370.4976484428457</v>
+        <v>265.0421481579403</v>
       </c>
       <c r="K24" t="n">
-        <v>521.9522409288484</v>
+        <v>416.4967406439429</v>
       </c>
       <c r="L24" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366886</v>
       </c>
       <c r="M24" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N24" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
         <v>1815.956238873899</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>924.9202861374791</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C25" t="n">
-        <v>752.9477230163951</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="D25" t="n">
-        <v>589.6309501431658</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="E25" t="n">
-        <v>423.4227442960193</v>
+        <v>215.6950819497085</v>
       </c>
       <c r="F25" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G25" t="n">
-        <v>251.5609700705797</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H25" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K25" t="n">
-        <v>418.3963088502695</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L25" t="n">
-        <v>907.107593591763</v>
+        <v>985.0293102399837</v>
       </c>
       <c r="M25" t="n">
-        <v>1026.065277288251</v>
+        <v>1140.676971382829</v>
       </c>
       <c r="N25" t="n">
-        <v>1143.47126110965</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O25" t="n">
-        <v>1589.554333948619</v>
+        <v>1740.927831326518</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.982504260494</v>
+        <v>2122.847895973299</v>
       </c>
       <c r="T25" t="n">
-        <v>1946.573037954073</v>
+        <v>1883.438429666877</v>
       </c>
       <c r="U25" t="n">
-        <v>1865.704387105969</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V25" t="n">
-        <v>1583.992919713997</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W25" t="n">
-        <v>1583.992919713997</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X25" t="n">
-        <v>1341.429023159803</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y25" t="n">
-        <v>1115.086254849545</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1298.999593960376</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="C26" t="n">
-        <v>872.0988639736759</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="D26" t="n">
-        <v>872.0988639736759</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="E26" t="n">
-        <v>446.1219241215334</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F26" t="n">
-        <v>446.1219241215334</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G26" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643838</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O26" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P26" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q26" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R26" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T26" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U26" t="n">
-        <v>1875.831756891841</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="V26" t="n">
-        <v>1518.342342018091</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="W26" t="n">
-        <v>1518.342342018091</v>
+        <v>1578.247858992584</v>
       </c>
       <c r="X26" t="n">
-        <v>1298.999593960376</v>
+        <v>1166.527860160332</v>
       </c>
       <c r="Y26" t="n">
-        <v>1298.999593960376</v>
+        <v>1166.527860160332</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D27" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E27" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F27" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G27" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053153</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K27" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M27" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N27" t="n">
-        <v>1135.778278085548</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O27" t="n">
-        <v>1368.668229322841</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P27" t="n">
-        <v>1552.441323867022</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q27" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>955.7687389718126</v>
+        <v>846.2868302381622</v>
       </c>
       <c r="C28" t="n">
-        <v>783.7961758507286</v>
+        <v>674.3142671170782</v>
       </c>
       <c r="D28" t="n">
-        <v>620.4794029774993</v>
+        <v>510.9974942438489</v>
       </c>
       <c r="E28" t="n">
-        <v>454.2711971303528</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="F28" t="n">
-        <v>282.4094229049132</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G28" t="n">
-        <v>117.0722126915808</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J28" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K28" t="n">
-        <v>496.3180254984903</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L28" t="n">
-        <v>985.0293102399839</v>
+        <v>371.5335915770468</v>
       </c>
       <c r="M28" t="n">
-        <v>1103.986993936472</v>
+        <v>904.0267557363568</v>
       </c>
       <c r="N28" t="n">
-        <v>1619.425900599751</v>
+        <v>1419.465662399636</v>
       </c>
       <c r="O28" t="n">
-        <v>1724.568452418838</v>
+        <v>1902.310538521926</v>
       </c>
       <c r="P28" t="n">
-        <v>2124.194703701132</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.8763562978</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T28" t="n">
-        <v>1792.466889991379</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.332610191271</v>
+        <v>1553.86909933191</v>
       </c>
       <c r="V28" t="n">
-        <v>1230.6211427993</v>
+        <v>1553.86909933191</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7687389718126</v>
+        <v>1279.016695504423</v>
       </c>
       <c r="X28" t="n">
-        <v>955.7687389718126</v>
+        <v>1036.452798950228</v>
       </c>
       <c r="Y28" t="n">
-        <v>955.7687389718126</v>
+        <v>1036.452798950228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>747.603286003359</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="C29" t="n">
-        <v>320.7025560166592</v>
+        <v>1448.931026905141</v>
       </c>
       <c r="D29" t="n">
-        <v>320.7025560166592</v>
+        <v>1448.931026905141</v>
       </c>
       <c r="E29" t="n">
-        <v>320.7025560166592</v>
+        <v>1022.954087052998</v>
       </c>
       <c r="F29" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G29" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M29" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O29" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P29" t="n">
         <v>1918.85421215123</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T29" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="U29" t="n">
-        <v>1979.715642681246</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V29" t="n">
-        <v>1979.715642681246</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W29" t="n">
-        <v>1979.715642681246</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="X29" t="n">
-        <v>1567.995643848993</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.451650294889</v>
+        <v>1875.831756891841</v>
       </c>
     </row>
     <row r="30">
@@ -6524,34 +6524,34 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D30" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E30" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F30" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G30" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053153</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K30" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M30" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N30" t="n">
         <v>1241.233778370454</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>778.66946825591</v>
+        <v>882.5298340045007</v>
       </c>
       <c r="C31" t="n">
-        <v>778.66946825591</v>
+        <v>710.5572708834167</v>
       </c>
       <c r="D31" t="n">
-        <v>615.3526953826807</v>
+        <v>547.2404980101874</v>
       </c>
       <c r="E31" t="n">
-        <v>453.1411840502507</v>
+        <v>381.0322921630409</v>
       </c>
       <c r="F31" t="n">
-        <v>281.2794098248111</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J31" t="n">
-        <v>87.13587819270248</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K31" t="n">
-        <v>418.3963088502695</v>
+        <v>418.3963088502693</v>
       </c>
       <c r="L31" t="n">
-        <v>907.107593591763</v>
+        <v>587.8532086848418</v>
       </c>
       <c r="M31" t="n">
-        <v>1026.065277288251</v>
+        <v>1120.346372844152</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.50418395153</v>
+        <v>1635.785279507431</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.646735770617</v>
+        <v>1740.927831326518</v>
       </c>
       <c r="P31" t="n">
-        <v>2046.272987052911</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R31" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S31" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T31" t="n">
-        <v>2031.8763562978</v>
+        <v>1952.255919907027</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.742076497692</v>
+        <v>1952.255919907027</v>
       </c>
       <c r="V31" t="n">
-        <v>1470.030609105721</v>
+        <v>1670.544452515056</v>
       </c>
       <c r="W31" t="n">
-        <v>1195.178205278234</v>
+        <v>1395.692048687569</v>
       </c>
       <c r="X31" t="n">
-        <v>1195.178205278234</v>
+        <v>1299.038571026824</v>
       </c>
       <c r="Y31" t="n">
-        <v>968.8354369679757</v>
+        <v>1072.695802716566</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>910.0012487862346</v>
+        <v>896.7109775631113</v>
       </c>
       <c r="C32" t="n">
-        <v>910.0012487862346</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="D32" t="n">
-        <v>486.7086279712348</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E32" t="n">
-        <v>486.7086279712348</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="F32" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G32" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643844</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037496</v>
+        <v>228.547717203749</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804919</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050655</v>
       </c>
       <c r="M32" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N32" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O32" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S32" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T32" t="n">
-        <v>1922.072887082163</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U32" t="n">
-        <v>1663.882013359638</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V32" t="n">
-        <v>1306.392598485888</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="W32" t="n">
-        <v>910.0012487862346</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="X32" t="n">
-        <v>910.0012487862346</v>
+        <v>1252.162014527385</v>
       </c>
       <c r="Y32" t="n">
-        <v>910.0012487862346</v>
+        <v>1252.162014527385</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D33" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E33" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F33" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G33" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053153</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J33" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K33" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M33" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N33" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O33" t="n">
-        <v>1249.652366935845</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P33" t="n">
-        <v>1433.425461480025</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q33" t="n">
         <v>1772.632401645602</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1083.708439286102</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C34" t="n">
-        <v>911.7358761650185</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D34" t="n">
-        <v>748.4191032917892</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E34" t="n">
-        <v>582.2108974446427</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F34" t="n">
-        <v>410.3491232192031</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G34" t="n">
         <v>251.5609700705797</v>
@@ -6855,55 +6855,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J34" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K34" t="n">
-        <v>496.3180254984903</v>
+        <v>418.3963088502693</v>
       </c>
       <c r="L34" t="n">
-        <v>608.6404166488189</v>
+        <v>907.1075935917629</v>
       </c>
       <c r="M34" t="n">
-        <v>727.5981003453072</v>
+        <v>1026.065277288251</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.709457826329</v>
+        <v>1143.47126110965</v>
       </c>
       <c r="O34" t="n">
-        <v>1589.554333948619</v>
+        <v>1626.31613723194</v>
       </c>
       <c r="P34" t="n">
-        <v>1989.180585230913</v>
+        <v>2025.942388514233</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S34" t="n">
-        <v>2037.559238250755</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T34" t="n">
-        <v>1798.149771944334</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="U34" t="n">
-        <v>1798.149771944334</v>
+        <v>1788.477700765106</v>
       </c>
       <c r="V34" t="n">
-        <v>1516.438304552363</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="W34" t="n">
-        <v>1516.438304552363</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="X34" t="n">
-        <v>1273.874407998168</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.874407998168</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.94397990887211</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="C35" t="n">
-        <v>92.94397990887211</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="D35" t="n">
-        <v>92.94397990887211</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="E35" t="n">
-        <v>92.94397990887211</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F35" t="n">
-        <v>43.83330772426899</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G35" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H35" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I35" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N35" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O35" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P35" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q35" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R35" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T35" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U35" t="n">
-        <v>1663.882013359638</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="V35" t="n">
-        <v>1306.392598485888</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="W35" t="n">
-        <v>910.0012487862346</v>
+        <v>1559.835353056776</v>
       </c>
       <c r="X35" t="n">
-        <v>498.2812499539818</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="Y35" t="n">
-        <v>92.94397990887211</v>
+        <v>1148.115354224523</v>
       </c>
     </row>
     <row r="36">
@@ -6998,40 +6998,40 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D36" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E36" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F36" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G36" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H36" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053153</v>
+        <v>64.84342863053151</v>
       </c>
       <c r="J36" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428461</v>
       </c>
       <c r="K36" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288487</v>
       </c>
       <c r="L36" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215945</v>
       </c>
       <c r="M36" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N36" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O36" t="n">
-        <v>1249.652366935845</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P36" t="n">
         <v>1657.896824151927</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>791.3219530184812</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="C37" t="n">
-        <v>619.3493898973971</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="D37" t="n">
-        <v>619.3493898973971</v>
+        <v>583.1063861310586</v>
       </c>
       <c r="E37" t="n">
-        <v>453.1411840502507</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="F37" t="n">
-        <v>281.2794098248111</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G37" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H37" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I37" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J37" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K37" t="n">
-        <v>496.3180254984903</v>
+        <v>324.157320156614</v>
       </c>
       <c r="L37" t="n">
-        <v>834.5126341488234</v>
+        <v>436.4797113069426</v>
       </c>
       <c r="M37" t="n">
-        <v>1367.005798308134</v>
+        <v>968.9728754662526</v>
       </c>
       <c r="N37" t="n">
         <v>1484.411782129532</v>
       </c>
       <c r="O37" t="n">
-        <v>1589.554333948619</v>
+        <v>1589.554333948618</v>
       </c>
       <c r="P37" t="n">
-        <v>1989.180585230913</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q37" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S37" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U37" t="n">
-        <v>1512.332610191271</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.6211427993</v>
+        <v>1680.348196408293</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7687389718126</v>
+        <v>1405.495792580806</v>
       </c>
       <c r="X37" t="n">
-        <v>955.7687389718126</v>
+        <v>1162.931896026611</v>
       </c>
       <c r="Y37" t="n">
-        <v>955.7687389718126</v>
+        <v>936.5891277163535</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1464.111758059588</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="C38" t="n">
-        <v>1464.111758059588</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="D38" t="n">
-        <v>1040.819137244589</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="E38" t="n">
-        <v>614.8421973924461</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F38" t="n">
-        <v>189.7180155818463</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G38" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H38" t="n">
         <v>43.83330772426898</v>
       </c>
       <c r="I38" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M38" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N38" t="n">
         <v>1365.479726947677</v>
@@ -7204,22 +7204,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T38" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U38" t="n">
-        <v>1875.831756891841</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V38" t="n">
-        <v>1875.831756891841</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W38" t="n">
-        <v>1875.831756891841</v>
+        <v>1152.016765913911</v>
       </c>
       <c r="X38" t="n">
-        <v>1464.111758059588</v>
+        <v>1152.016765913911</v>
       </c>
       <c r="Y38" t="n">
-        <v>1464.111758059588</v>
+        <v>746.6794958688016</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.83330772426898</v>
       </c>
       <c r="I39" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J39" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K39" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L39" t="n">
-        <v>508.6576814496921</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M39" t="n">
-        <v>758.2365412873041</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N39" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1249.652366935845</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
         <v>1815.956238873899</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>456.4851353109429</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C40" t="n">
-        <v>284.5125721898589</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D40" t="n">
-        <v>284.5125721898589</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E40" t="n">
-        <v>179.45207818337</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F40" t="n">
-        <v>179.45207818337</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G40" t="n">
-        <v>179.45207818337</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H40" t="n">
         <v>43.83330772426898</v>
@@ -7338,16 +7338,16 @@
         <v>496.3180254984903</v>
       </c>
       <c r="L40" t="n">
-        <v>608.6404166488189</v>
+        <v>749.2359158802506</v>
       </c>
       <c r="M40" t="n">
-        <v>727.5981003453072</v>
+        <v>1281.729080039561</v>
       </c>
       <c r="N40" t="n">
-        <v>1243.037007008586</v>
+        <v>1797.16798670284</v>
       </c>
       <c r="O40" t="n">
-        <v>1589.554333948619</v>
+        <v>1902.310538521926</v>
       </c>
       <c r="P40" t="n">
         <v>1989.180585230912</v>
@@ -7359,25 +7359,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S40" t="n">
-        <v>2191.665386213449</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T40" t="n">
-        <v>1952.255919907028</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U40" t="n">
-        <v>1672.12164010692</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V40" t="n">
-        <v>1390.410172714948</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W40" t="n">
-        <v>1115.557768887461</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X40" t="n">
-        <v>872.9938723332665</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y40" t="n">
-        <v>646.6511040230085</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>894.0266585259686</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="C41" t="n">
-        <v>467.1259285392687</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="D41" t="n">
-        <v>43.833307724269</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="E41" t="n">
-        <v>43.833307724269</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F41" t="n">
-        <v>43.833307724269</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G41" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H41" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I41" t="n">
         <v>87.10761271643844</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K41" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L41" t="n">
-        <v>727.9824581050663</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M41" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N41" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O41" t="n">
-        <v>1667.064768900566</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P41" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q41" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R41" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S41" t="n">
-        <v>2191.66538621345</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T41" t="n">
-        <v>2191.66538621345</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U41" t="n">
-        <v>2191.66538621345</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V41" t="n">
-        <v>2191.66538621345</v>
+        <v>2105.334394316182</v>
       </c>
       <c r="W41" t="n">
-        <v>1795.274036513797</v>
+        <v>1708.943044616528</v>
       </c>
       <c r="X41" t="n">
-        <v>1383.554037681544</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="Y41" t="n">
-        <v>1313.875022817499</v>
+        <v>1297.223045784276</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H42" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053155</v>
+        <v>64.84342863053152</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709436</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K42" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L42" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M42" t="n">
-        <v>758.2365412873042</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N42" t="n">
-        <v>1016.762415698552</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O42" t="n">
-        <v>1249.652366935845</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P42" t="n">
-        <v>1433.425461480025</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q42" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.049290503665</v>
+        <v>926.9407234775822</v>
       </c>
       <c r="C43" t="n">
-        <v>752.076727382581</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D43" t="n">
-        <v>588.7599545093517</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E43" t="n">
         <v>588.7599545093517</v>
       </c>
       <c r="F43" t="n">
-        <v>416.8981802839122</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G43" t="n">
         <v>251.5609700705797</v>
@@ -7566,55 +7566,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J43" t="n">
-        <v>87.13587819270248</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K43" t="n">
-        <v>324.157320156615</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L43" t="n">
-        <v>436.4797113069436</v>
+        <v>522.9070889549464</v>
       </c>
       <c r="M43" t="n">
-        <v>968.9728754662538</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N43" t="n">
-        <v>1484.411782129533</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O43" t="n">
-        <v>1589.55433394862</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P43" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q43" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.982504260495</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.982504260495</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T43" t="n">
-        <v>1946.573037954074</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U43" t="n">
-        <v>1666.438758153965</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V43" t="n">
-        <v>1666.438758153965</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W43" t="n">
-        <v>1391.586354326478</v>
+        <v>1169.504620031777</v>
       </c>
       <c r="X43" t="n">
-        <v>1340.558027525989</v>
+        <v>926.9407234775822</v>
       </c>
       <c r="Y43" t="n">
-        <v>1114.215259215731</v>
+        <v>926.9407234775822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1296.315274923233</v>
+        <v>910.0012487862341</v>
       </c>
       <c r="C44" t="n">
-        <v>869.4145449365332</v>
+        <v>910.0012487862341</v>
       </c>
       <c r="D44" t="n">
-        <v>446.1219241215334</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E44" t="n">
-        <v>446.1219241215334</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F44" t="n">
-        <v>446.1219241215334</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G44" t="n">
-        <v>43.833307724269</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H44" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I44" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J44" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050663</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M44" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P44" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q44" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R44" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2191.66538621345</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>2191.66538621345</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U44" t="n">
-        <v>1933.474512490925</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V44" t="n">
-        <v>1701.652544968343</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W44" t="n">
-        <v>1701.652544968343</v>
+        <v>910.0012487862341</v>
       </c>
       <c r="X44" t="n">
-        <v>1701.652544968343</v>
+        <v>910.0012487862341</v>
       </c>
       <c r="Y44" t="n">
-        <v>1296.315274923233</v>
+        <v>910.0012487862341</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I45" t="n">
-        <v>64.84342863053155</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J45" t="n">
-        <v>146.0262857709436</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K45" t="n">
-        <v>297.4808782569462</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L45" t="n">
-        <v>508.6576814496921</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M45" t="n">
-        <v>982.7079039592063</v>
+        <v>781.6938471317158</v>
       </c>
       <c r="N45" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O45" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R45" t="n">
         <v>1815.956238873899</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>456.4851353109438</v>
+        <v>738.1966027029141</v>
       </c>
       <c r="C46" t="n">
-        <v>456.4851353109438</v>
+        <v>566.2240395818301</v>
       </c>
       <c r="D46" t="n">
-        <v>456.4851353109438</v>
+        <v>566.2240395818301</v>
       </c>
       <c r="E46" t="n">
-        <v>453.1411840502507</v>
+        <v>566.2240395818301</v>
       </c>
       <c r="F46" t="n">
-        <v>281.2794098248111</v>
+        <v>394.3622653563905</v>
       </c>
       <c r="G46" t="n">
-        <v>115.9421996114787</v>
+        <v>229.0250551430581</v>
       </c>
       <c r="H46" t="n">
-        <v>115.9421996114787</v>
+        <v>93.40628468395704</v>
       </c>
       <c r="I46" t="n">
-        <v>43.833307724269</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J46" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K46" t="n">
-        <v>171.1136997362474</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L46" t="n">
-        <v>659.8249844777411</v>
+        <v>371.5335915770472</v>
       </c>
       <c r="M46" t="n">
-        <v>1055.400253114257</v>
+        <v>904.0267557363572</v>
       </c>
       <c r="N46" t="n">
-        <v>1570.839159777536</v>
+        <v>1419.465662399636</v>
       </c>
       <c r="O46" t="n">
-        <v>2053.684035899827</v>
+        <v>1902.310538521926</v>
       </c>
       <c r="P46" t="n">
-        <v>2140.554082608812</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q46" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S46" t="n">
-        <v>2191.66538621345</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T46" t="n">
-        <v>1952.255919907029</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U46" t="n">
         <v>1672.12164010692</v>
       </c>
       <c r="V46" t="n">
-        <v>1390.410172714949</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="W46" t="n">
-        <v>1115.557768887462</v>
+        <v>1397.269236279433</v>
       </c>
       <c r="X46" t="n">
-        <v>872.9938723332674</v>
+        <v>1154.705339725238</v>
       </c>
       <c r="Y46" t="n">
-        <v>646.6511040230095</v>
+        <v>928.3625714149798</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>226.7387501736388</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8853,13 +8853,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>394.1629412083116</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.63128871313633</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>278.7822235252391</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>75.88071088095609</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>113.4025158018209</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>243.2165947276852</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>226.7387501736385</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>264.9783407168318</v>
       </c>
       <c r="M22" t="n">
-        <v>126.5091793556852</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>226.7387501736386</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9804,19 +9804,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>37.06058327914818</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>344.3843646665478</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>120.2180428151478</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>10.2785697396465</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.52462515927247</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>57.71162493357969</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.23342985444546</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>264.3488622824476</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>115.7693879743207</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>226.7387501736391</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>226.7387501736385</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>154.589515576128</v>
       </c>
       <c r="L37" t="n">
-        <v>228.1537550505096</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>142.0156557893249</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>243.8129041625713</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>226.7387501736388</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.2180428151476</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>154.5895155761289</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>241.8898970387581</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11384,13 +11384,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>226.7387501736385</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.52379448745953</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>10.27856973964688</v>
       </c>
       <c r="M46" t="n">
-        <v>279.4117019596242</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>15.61505488431357</v>
       </c>
       <c r="G11" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8302460968812</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>204.0224889386695</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>84.43577114531841</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.09358168827308</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6446487106952</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>216.1439217360707</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>87.9572571122375</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23670,10 +23670,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>63.17331803574756</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>332.3016726292545</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.2657302332918</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8302460968812</v>
+        <v>77.02349520254756</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>71.75932055018703</v>
       </c>
       <c r="U19" t="n">
-        <v>95.34741102992703</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.06460756829841</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>16.27799542326036</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
         <v>255.6089649852995</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>24.04026862936257</v>
       </c>
       <c r="T22" t="n">
-        <v>157.9479299538825</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>349.3108056263699</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.5894255259079</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S25" t="n">
-        <v>152.5650864830671</v>
+        <v>84.43577114531891</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>197.2729726624837</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24457,10 +24457,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>52.04065839397464</v>
       </c>
       <c r="X26" t="n">
-        <v>190.4534782667922</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.143869805209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>41.12112424923345</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>123.9096544998098</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.7453437260952</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.95672756956921</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>144.4513147045154</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>63.7533540539842</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>256.5269287574638</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.483566494061961</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3329370021073</v>
+        <v>36.36826802474116</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>372.2533745297367</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>22.52466836285049</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.46199093114691</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>162.2707929373718</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>253.8398694542902</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>239.5953619564004</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>60.53623472225097</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
         <v>71.38780296833761</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>84.43577114531843</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.1005558094662</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309217</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.8302460968812</v>
@@ -25687,7 +25687,7 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>325.5131667898107</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.3016726292535</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>205.9724691159396</v>
       </c>
       <c r="X43" t="n">
-        <v>189.620214056168</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>233.9197189982623</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309217</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>124.4107728776565</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>161.2356120405888</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>22.31055577824644</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
         <v>152.5650864830671</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>326666.2016875341</v>
+        <v>326666.201687534</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>326666.201687534</v>
+        <v>326666.2016875341</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326666.2016875341</v>
+        <v>326666.201687534</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>326666.201687534</v>
+        <v>326666.2016875341</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>326666.2016875342</v>
+        <v>326666.201687534</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>326666.2016875341</v>
+        <v>326666.201687534</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>326666.2016875342</v>
+        <v>326666.201687534</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>326666.2016875342</v>
+        <v>326666.2016875341</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502037.5599860538</v>
+        <v>502037.5599860539</v>
       </c>
       <c r="C2" t="n">
         <v>502037.5599860538</v>
       </c>
       <c r="D2" t="n">
-        <v>502037.5599860537</v>
+        <v>502037.5599860538</v>
       </c>
       <c r="E2" t="n">
-        <v>303435.0115091523</v>
+        <v>303435.0115091526</v>
       </c>
       <c r="F2" t="n">
         <v>303435.0115091526</v>
       </c>
       <c r="G2" t="n">
-        <v>303435.0115091525</v>
+        <v>303435.0115091526</v>
       </c>
       <c r="H2" t="n">
         <v>303435.0115091525</v>
       </c>
       <c r="I2" t="n">
+        <v>303435.0115091526</v>
+      </c>
+      <c r="J2" t="n">
+        <v>303435.0115091525</v>
+      </c>
+      <c r="K2" t="n">
         <v>303435.0115091524</v>
-      </c>
-      <c r="J2" t="n">
-        <v>303435.0115091524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>303435.0115091525</v>
       </c>
       <c r="L2" t="n">
         <v>303435.0115091525</v>
@@ -26349,13 +26349,13 @@
         <v>303435.0115091525</v>
       </c>
       <c r="N2" t="n">
-        <v>303435.0115091524</v>
+        <v>303435.0115091526</v>
       </c>
       <c r="O2" t="n">
+        <v>303435.0115091527</v>
+      </c>
+      <c r="P2" t="n">
         <v>303435.0115091526</v>
-      </c>
-      <c r="P2" t="n">
-        <v>303435.0115091525</v>
       </c>
     </row>
     <row r="3">
@@ -26432,16 +26432,16 @@
         <v>23682.18020203632</v>
       </c>
       <c r="G4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="H4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="I4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="J4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="K4" t="n">
         <v>23682.18020203632</v>
@@ -26450,13 +26450,13 @@
         <v>23682.18020203632</v>
       </c>
       <c r="M4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="N4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="O4" t="n">
-        <v>23682.18020203631</v>
+        <v>23682.18020203632</v>
       </c>
       <c r="P4" t="n">
         <v>23682.18020203632</v>
@@ -26484,34 +26484,34 @@
         <v>44321.17942781076</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="H5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="I5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="L5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="M5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="N5" t="n">
         <v>44321.17942781076</v>
       </c>
       <c r="O5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="P5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142725.5545070867</v>
+        <v>142703.8408655905</v>
       </c>
       <c r="C6" t="n">
-        <v>142725.5545070867</v>
+        <v>142703.8408655904</v>
       </c>
       <c r="D6" t="n">
-        <v>142725.5545070866</v>
+        <v>142703.8408655903</v>
       </c>
       <c r="E6" t="n">
-        <v>-333840.8220320324</v>
+        <v>-334429.9715263196</v>
       </c>
       <c r="F6" t="n">
-        <v>235431.6518793055</v>
+        <v>234842.502385018</v>
       </c>
       <c r="G6" t="n">
-        <v>235431.6518793054</v>
+        <v>234842.502385018</v>
       </c>
       <c r="H6" t="n">
-        <v>235431.6518793055</v>
+        <v>234842.502385018</v>
       </c>
       <c r="I6" t="n">
-        <v>235431.6518793053</v>
+        <v>234842.502385018</v>
       </c>
       <c r="J6" t="n">
-        <v>235431.6518793053</v>
+        <v>234842.502385018</v>
       </c>
       <c r="K6" t="n">
-        <v>235431.6518793055</v>
+        <v>234842.5023850179</v>
       </c>
       <c r="L6" t="n">
-        <v>235431.6518793054</v>
+        <v>234842.5023850179</v>
       </c>
       <c r="M6" t="n">
-        <v>98888.70665282136</v>
+        <v>98299.55715853392</v>
       </c>
       <c r="N6" t="n">
-        <v>235431.6518793054</v>
+        <v>234842.502385018</v>
       </c>
       <c r="O6" t="n">
-        <v>235431.6518793055</v>
+        <v>234842.5023850181</v>
       </c>
       <c r="P6" t="n">
-        <v>235431.6518793054</v>
+        <v>234842.502385018</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>504.9479613470796</v>
       </c>
       <c r="G3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="H3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="I3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="J3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="L3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="M3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="O3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="P3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>547.9163465533624</v>
       </c>
       <c r="G4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="H4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="I4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="J4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>547.9163465533622</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533625</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="P4" t="n">
-        <v>547.9163465533625</v>
+        <v>547.9163465533622</v>
       </c>
     </row>
   </sheetData>
@@ -31995,13 +31995,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I14" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J14" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K14" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L14" t="n">
         <v>320.3400016493639</v>
@@ -32010,7 +32010,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N14" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O14" t="n">
         <v>342.022314863991</v>
@@ -32022,7 +32022,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R14" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S14" t="n">
         <v>46.25729314249881</v>
@@ -32031,7 +32031,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I15" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J15" t="n">
         <v>102.6140003337495</v>
@@ -32086,10 +32086,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M15" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N15" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O15" t="n">
         <v>258.4142647093871</v>
@@ -32101,13 +32101,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R15" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S15" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T15" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U15" t="n">
         <v>0.0714549001906245</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H16" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I16" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J16" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K16" t="n">
         <v>105.7907368199291</v>
@@ -32177,16 +32177,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R16" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S16" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T16" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U16" t="n">
         <v>0.04966701259151608</v>
@@ -32232,43 +32232,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K17" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M17" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N17" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P17" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q17" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R17" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T17" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U17" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H18" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
         <v>102.6140003337495</v>
@@ -32320,13 +32320,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L18" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N18" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
         <v>258.4142647093871</v>
@@ -32335,19 +32335,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S18" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
@@ -32414,19 +32414,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S19" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I20" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J20" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K20" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L20" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M20" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N20" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O20" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P20" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q20" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R20" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S20" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T20" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U20" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H21" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I21" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K21" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L21" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M21" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N21" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O21" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P21" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R21" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S21" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T21" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H22" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I22" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J22" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K22" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L22" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M22" t="n">
         <v>142.7347163525851</v>
@@ -32651,19 +32651,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R22" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S22" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T22" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,43 +32706,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I23" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J23" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K23" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L23" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M23" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N23" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O23" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P23" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q23" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R23" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S23" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T23" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U23" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H24" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I24" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J24" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K24" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L24" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M24" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N24" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O24" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P24" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R24" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S24" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T24" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H25" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I25" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J25" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K25" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L25" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M25" t="n">
         <v>142.7347163525851</v>
@@ -32888,19 +32888,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R25" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S25" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T25" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,43 +32943,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I26" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J26" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K26" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L26" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M26" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N26" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O26" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P26" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q26" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R26" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S26" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T26" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U26" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H27" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I27" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J27" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K27" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L27" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M27" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N27" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O27" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P27" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R27" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S27" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T27" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H28" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I28" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J28" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K28" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L28" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M28" t="n">
         <v>142.7347163525851</v>
@@ -33125,19 +33125,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R28" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S28" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T28" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I29" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J29" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K29" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L29" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M29" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N29" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O29" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P29" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q29" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R29" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S29" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T29" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U29" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H30" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I30" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J30" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K30" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L30" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M30" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N30" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O30" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P30" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q30" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R30" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S30" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T30" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H31" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I31" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J31" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K31" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L31" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M31" t="n">
         <v>142.7347163525851</v>
@@ -33362,19 +33362,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R31" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S31" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T31" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I32" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J32" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K32" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L32" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M32" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N32" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O32" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P32" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q32" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R32" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S32" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T32" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U32" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H33" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I33" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J33" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K33" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L33" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M33" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N33" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O33" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P33" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R33" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S33" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T33" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H34" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I34" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J34" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K34" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L34" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M34" t="n">
         <v>142.7347163525851</v>
@@ -33599,19 +33599,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R34" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S34" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T34" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,43 +33654,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I35" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K35" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L35" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M35" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N35" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O35" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P35" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q35" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R35" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S35" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T35" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U35" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H36" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I36" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J36" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K36" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L36" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M36" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N36" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O36" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P36" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q36" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R36" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S36" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T36" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H37" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I37" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J37" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K37" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L37" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M37" t="n">
         <v>142.7347163525851</v>
@@ -33836,19 +33836,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R37" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S37" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T37" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,43 +33891,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I38" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J38" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K38" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L38" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M38" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N38" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O38" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P38" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q38" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R38" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S38" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T38" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U38" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H39" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I39" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J39" t="n">
         <v>102.6140003337495</v>
@@ -33979,13 +33979,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L39" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M39" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N39" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O39" t="n">
         <v>258.4142647093871</v>
@@ -33994,19 +33994,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R39" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S39" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T39" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H40" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I40" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J40" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K40" t="n">
         <v>105.7907368199291</v>
@@ -34073,19 +34073,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R40" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S40" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T40" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.029941553154088</v>
+        <v>2.029941553154087</v>
       </c>
       <c r="H41" t="n">
-        <v>20.78913893123931</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I41" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J41" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K41" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L41" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M41" t="n">
-        <v>356.439974745268</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N41" t="n">
-        <v>362.2075461831671</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O41" t="n">
-        <v>342.0223148639911</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P41" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q41" t="n">
-        <v>219.2108508981687</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R41" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S41" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T41" t="n">
-        <v>8.886069148932025</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U41" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H42" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I42" t="n">
-        <v>37.39473109976016</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J42" t="n">
         <v>102.6140003337495</v>
       </c>
       <c r="K42" t="n">
-        <v>175.3836706878815</v>
+        <v>175.3836706878814</v>
       </c>
       <c r="L42" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M42" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N42" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O42" t="n">
         <v>258.4142647093871</v>
       </c>
       <c r="P42" t="n">
-        <v>207.400229633294</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q42" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R42" t="n">
-        <v>67.43437113989872</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S42" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T42" t="n">
-        <v>4.377803551678926</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9105618975111273</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H43" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I43" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J43" t="n">
-        <v>64.3767261540367</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K43" t="n">
         <v>105.7907368199291</v>
@@ -34310,19 +34310,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.24714216340904</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R43" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S43" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T43" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.029941553154088</v>
+        <v>2.029941553154087</v>
       </c>
       <c r="H44" t="n">
-        <v>20.78913893123931</v>
+        <v>20.7891389312393</v>
       </c>
       <c r="I44" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J44" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K44" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L44" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M44" t="n">
-        <v>356.439974745268</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N44" t="n">
-        <v>362.2075461831671</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O44" t="n">
-        <v>342.0223148639911</v>
+        <v>342.0223148639914</v>
       </c>
       <c r="P44" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.2108508981687</v>
+        <v>219.2108508981686</v>
       </c>
       <c r="R44" t="n">
         <v>127.5133160883155</v>
       </c>
       <c r="S44" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T44" t="n">
-        <v>8.886069148932025</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U44" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H45" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I45" t="n">
-        <v>37.39473109976016</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J45" t="n">
         <v>102.6140003337495</v>
       </c>
       <c r="K45" t="n">
-        <v>175.3836706878815</v>
+        <v>175.3836706878814</v>
       </c>
       <c r="L45" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M45" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N45" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O45" t="n">
         <v>258.4142647093871</v>
       </c>
       <c r="P45" t="n">
-        <v>207.400229633294</v>
+        <v>207.4002296332939</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R45" t="n">
-        <v>67.43437113989872</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S45" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T45" t="n">
-        <v>4.377803551678926</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9105618975111273</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H46" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I46" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J46" t="n">
-        <v>64.3767261540367</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K46" t="n">
         <v>105.7907368199291</v>
@@ -34547,19 +34547,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.24714216340904</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R46" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S46" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T46" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>21.22234434976014</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041613</v>
+        <v>308.741636174055</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
@@ -35497,7 +35497,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>478.8386085954692</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N12" t="n">
         <v>261.1372468800477</v>
@@ -35573,13 +35573,13 @@
         <v>334.6064956137041</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N13" t="n">
-        <v>512.7548440582095</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O13" t="n">
         <v>487.7220970932224</v>
@@ -35588,7 +35588,7 @@
         <v>87.74752192826833</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.62757939862406</v>
+        <v>81.25886811176039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J14" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K14" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L14" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M14" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N14" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O14" t="n">
         <v>304.6313555079669</v>
@@ -35667,7 +35667,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R14" t="n">
         <v>92.48066619351908</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041613</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M15" t="n">
-        <v>478.8386085954692</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N15" t="n">
         <v>261.1372468800477</v>
@@ -35743,13 +35743,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R15" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K16" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L16" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M16" t="n">
-        <v>398.9414999863384</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O16" t="n">
-        <v>487.7220970932224</v>
+        <v>182.0853086780135</v>
       </c>
       <c r="P16" t="n">
-        <v>87.74752192826833</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q16" t="n">
         <v>204.5301020025625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J17" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M17" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N17" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P17" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K18" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L18" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8759970536863</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P18" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K19" t="n">
-        <v>198.2285981690381</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L19" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M19" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O19" t="n">
-        <v>106.2045977970575</v>
+        <v>349.4211925247427</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J20" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K20" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L20" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M20" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N20" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O20" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P20" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R20" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J21" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M21" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N21" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O21" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
-        <v>412.3681386021038</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R21" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K22" t="n">
-        <v>84.82608236721713</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L22" t="n">
-        <v>493.647762365145</v>
+        <v>378.4353014747394</v>
       </c>
       <c r="M22" t="n">
-        <v>246.6684558167845</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N22" t="n">
         <v>520.6453602659385</v>
@@ -36296,10 +36296,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P22" t="n">
-        <v>87.74752192826834</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J23" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L23" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M23" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N23" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O23" t="n">
-        <v>304.6313555079673</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P23" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935704</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J24" t="n">
-        <v>308.7416361740547</v>
+        <v>178.5266804878757</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L24" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M24" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N24" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O24" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K25" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L25" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M25" t="n">
-        <v>120.1592764610993</v>
+        <v>157.2198597402474</v>
       </c>
       <c r="N25" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O25" t="n">
-        <v>450.5889624636052</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J26" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K26" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L26" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M26" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N26" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O26" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P26" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935704</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976015</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041615</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M27" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N27" t="n">
-        <v>381.3552896951956</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O27" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q27" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>150.2821591042453</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K28" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L28" t="n">
-        <v>493.647762365145</v>
+        <v>123.7355304975541</v>
       </c>
       <c r="M28" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N28" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P28" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.15220455789655</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J29" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L29" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M29" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N29" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O29" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P29" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.0861762935711</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976015</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041615</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L30" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M30" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8759970536863</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O30" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P30" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q30" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575456</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.73997017013482</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K31" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L31" t="n">
-        <v>493.647762365145</v>
+        <v>171.1685856914873</v>
       </c>
       <c r="M31" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N31" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>106.2045977970575</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P31" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q31" t="n">
-        <v>146.8610092530695</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J32" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K32" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L32" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M32" t="n">
-        <v>319.0087118458363</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N32" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O32" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P32" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976015</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J33" t="n">
-        <v>82.00288600041615</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M33" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N33" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O33" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P33" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q33" t="n">
-        <v>342.6332728945224</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R33" t="n">
-        <v>43.76145174575456</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K34" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M34" t="n">
         <v>120.1592764610993</v>
       </c>
       <c r="N34" t="n">
-        <v>382.9407651323455</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
         <v>487.7220970932224</v>
@@ -37247,7 +37247,7 @@
         <v>403.6628800831245</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025625</v>
+        <v>167.3969673729447</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J35" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K35" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L35" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M35" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N35" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O35" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P35" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R35" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976015</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041615</v>
+        <v>308.7416361740552</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L36" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M36" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N36" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O36" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P36" t="n">
-        <v>412.3681386021038</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q36" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
-        <v>43.76145174575456</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K37" t="n">
-        <v>334.6064956137041</v>
+        <v>239.4155979433451</v>
       </c>
       <c r="L37" t="n">
-        <v>341.6107158084172</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M37" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N37" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O37" t="n">
-        <v>106.2045977970575</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P37" t="n">
         <v>403.6628800831245</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J38" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K38" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L38" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M38" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N38" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O38" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P38" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935708</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L39" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M39" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N39" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O39" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P39" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q39" t="n">
-        <v>342.6332728945224</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>334.6064956137041</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4569607579077</v>
+        <v>255.4726165472325</v>
       </c>
       <c r="M40" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N40" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O40" t="n">
-        <v>350.0175019596288</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P40" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q40" t="n">
         <v>204.5301020025625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J41" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K41" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L41" t="n">
-        <v>282.0279592167411</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M41" t="n">
-        <v>319.0087118458362</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N41" t="n">
-        <v>324.9279233487211</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O41" t="n">
-        <v>304.631355507967</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P41" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R41" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976016</v>
+        <v>21.22234434976014</v>
       </c>
       <c r="J42" t="n">
-        <v>82.00288600041617</v>
+        <v>308.741636174055</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L42" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M42" t="n">
-        <v>252.0998584218305</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N42" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O42" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P42" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.1125655360314</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>150.2821591042453</v>
+        <v>43.76145174575454</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.73997017013484</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K43" t="n">
-        <v>239.415597943346</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L43" t="n">
-        <v>113.4569607579077</v>
+        <v>355.3468577966657</v>
       </c>
       <c r="M43" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N43" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O43" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P43" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J44" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K44" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L44" t="n">
-        <v>282.0279592167411</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M44" t="n">
-        <v>319.0087118458362</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N44" t="n">
-        <v>324.9279233487211</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O44" t="n">
-        <v>304.631355507967</v>
+        <v>304.6313555079673</v>
       </c>
       <c r="P44" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R44" t="n">
-        <v>92.48066619351899</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22234434976016</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J45" t="n">
-        <v>82.00288600041617</v>
+        <v>82.00288600041613</v>
       </c>
       <c r="K45" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L45" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M45" t="n">
-        <v>478.8386085954689</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N45" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O45" t="n">
-        <v>235.2423749871649</v>
+        <v>331.7661694746243</v>
       </c>
       <c r="P45" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R45" t="n">
-        <v>43.76145174575457</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.73997017013484</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K46" t="n">
-        <v>84.82608236721714</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L46" t="n">
-        <v>493.647762365145</v>
+        <v>123.7355304975545</v>
       </c>
       <c r="M46" t="n">
-        <v>399.5709784207235</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N46" t="n">
         <v>520.6453602659385</v>
@@ -38192,10 +38192,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
-        <v>87.74752192826836</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.62757939862409</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
